--- a/medicine/Enfance/Martin_Matje/Martin_Matje.xlsx
+++ b/medicine/Enfance/Martin_Matje/Martin_Matje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin Matje, de son vrai nom Thierry Martin, est un illustrateur né le 18 février 1962 à Paris et mort le 13 septembre 2004 dans la même ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin Matje, de son vrai nom Thierry Martin, est un illustrateur né le 18 février 1962 à Paris et mort le 13 septembre 2004 dans la même ville.
 Ancien directeur artistique du magazine jeunesse Je bouquine (Bayard Presse), il a été l'auteur de nombreux livres pour enfants chez Nathan, Gallimard et Bayard. Il a aussi été illustrateur de presse pour Golf magazine, Lire, Le Monde de l'éducation, Les Échos ou encore le prestigieux New Yorker.  
 Depuis quelques années, Martin Matje vivait au Québec.
 </t>
